--- a/Ignition table - Standart.xlsx
+++ b/Ignition table - Standart.xlsx
@@ -169,11 +169,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="137430144"/>
-        <c:axId val="137431680"/>
+        <c:axId val="244189056"/>
+        <c:axId val="244190592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137430144"/>
+        <c:axId val="244189056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -182,7 +182,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137431680"/>
+        <c:crossAx val="244190592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -190,7 +190,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137431680"/>
+        <c:axId val="244190592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -201,7 +201,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137430144"/>
+        <c:crossAx val="244189056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -318,11 +318,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="137451776"/>
-        <c:axId val="137453568"/>
+        <c:axId val="244247552"/>
+        <c:axId val="244417280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137451776"/>
+        <c:axId val="244247552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -331,7 +331,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137453568"/>
+        <c:crossAx val="244417280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -339,7 +339,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137453568"/>
+        <c:axId val="244417280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -350,7 +350,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137451776"/>
+        <c:crossAx val="244247552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1452,11 +1452,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139287936"/>
-        <c:axId val="139293824"/>
+        <c:axId val="246645120"/>
+        <c:axId val="246646656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139287936"/>
+        <c:axId val="246645120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1466,7 +1466,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139293824"/>
+        <c:crossAx val="246646656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1474,7 +1474,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139293824"/>
+        <c:axId val="246646656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1485,7 +1485,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139287936"/>
+        <c:crossAx val="246645120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1602,11 +1602,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="267178752"/>
-        <c:axId val="267180288"/>
+        <c:axId val="246656000"/>
+        <c:axId val="246674176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="267178752"/>
+        <c:axId val="246656000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1615,7 +1615,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="267180288"/>
+        <c:crossAx val="246674176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1623,7 +1623,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="267180288"/>
+        <c:axId val="246674176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1634,7 +1634,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="267178752"/>
+        <c:crossAx val="246656000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1722,14 +1722,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2072,7 +2072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E16" sqref="E1:E16"/>
     </sheetView>
   </sheetViews>

--- a/Ignition table - Standart.xlsx
+++ b/Ignition table - Standart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="12855"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="17475" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -169,11 +170,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="244189056"/>
-        <c:axId val="244190592"/>
+        <c:axId val="224015488"/>
+        <c:axId val="224017024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="244189056"/>
+        <c:axId val="224015488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -182,7 +183,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244190592"/>
+        <c:crossAx val="224017024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -190,7 +191,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244190592"/>
+        <c:axId val="224017024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -201,7 +202,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244189056"/>
+        <c:crossAx val="224015488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -318,11 +319,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="244247552"/>
-        <c:axId val="244417280"/>
+        <c:axId val="224033024"/>
+        <c:axId val="224055296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="244247552"/>
+        <c:axId val="224033024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -331,7 +332,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244417280"/>
+        <c:crossAx val="224055296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -339,7 +340,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244417280"/>
+        <c:axId val="224055296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -350,7 +351,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244247552"/>
+        <c:crossAx val="224033024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -408,6 +409,63 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$19:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2310</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2730</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4530</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5370</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6360</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$B$19:$B$34</c:f>
@@ -473,6 +531,63 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$19:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2310</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2730</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4530</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5370</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6360</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$C$19:$C$34</c:f>
@@ -538,6 +653,63 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$19:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2310</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2730</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4530</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5370</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6360</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$D$19:$D$34</c:f>
@@ -603,6 +775,63 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$19:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2310</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2730</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4530</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5370</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6360</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$E$19:$E$34</c:f>
@@ -668,6 +897,63 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$19:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2310</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2730</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4530</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5370</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6360</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$F$19:$F$34</c:f>
@@ -733,6 +1019,63 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$19:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2310</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2730</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4530</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5370</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6360</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$G$19:$G$34</c:f>
@@ -798,6 +1141,63 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$19:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2310</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2730</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4530</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5370</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6360</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$H$19:$H$34</c:f>
@@ -863,6 +1263,63 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$19:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2310</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2730</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4530</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5370</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6360</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$I$19:$I$34</c:f>
@@ -928,6 +1385,63 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$19:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2310</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2730</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4530</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5370</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6360</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$J$19:$J$34</c:f>
@@ -993,6 +1507,63 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$19:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2310</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2730</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4530</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5370</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6360</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$K$19:$K$34</c:f>
@@ -1058,6 +1629,63 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$19:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2310</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2730</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4530</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5370</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6360</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$L$19:$L$34</c:f>
@@ -1123,6 +1751,63 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$19:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2310</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2730</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4530</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5370</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6360</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$M$19:$M$34</c:f>
@@ -1188,6 +1873,63 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$19:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2310</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2730</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4530</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5370</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6360</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$N$19:$N$34</c:f>
@@ -1253,6 +1995,63 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$19:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2310</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2730</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4530</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5370</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6360</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$O$19:$O$34</c:f>
@@ -1318,6 +2117,63 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$19:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2310</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2730</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4530</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5370</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6360</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$P$19:$P$34</c:f>
@@ -1383,6 +2239,63 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$19:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2310</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2730</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4530</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5370</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6360</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$Q$19:$Q$34</c:f>
@@ -1452,11 +2365,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="246645120"/>
-        <c:axId val="246646656"/>
+        <c:axId val="225561984"/>
+        <c:axId val="225571968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="246645120"/>
+        <c:axId val="225561984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1466,7 +2379,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246646656"/>
+        <c:crossAx val="225571968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1474,7 +2387,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246646656"/>
+        <c:axId val="225571968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1485,7 +2398,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246645120"/>
+        <c:crossAx val="225561984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1602,11 +2515,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="246656000"/>
-        <c:axId val="246674176"/>
+        <c:axId val="225978624"/>
+        <c:axId val="225988608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="246656000"/>
+        <c:axId val="225978624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1615,7 +2528,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246674176"/>
+        <c:crossAx val="225988608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1623,7 +2536,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246674176"/>
+        <c:axId val="225988608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1634,7 +2547,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246656000"/>
+        <c:crossAx val="225978624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2072,7 +2985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E16" sqref="E1:E16"/>
     </sheetView>
   </sheetViews>
